--- a/veic_produto.xlsx
+++ b/veic_produto.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Data science\Python\projeto_chatbot\projeto_pm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
@@ -20,12 +15,12 @@
   <definedNames>
     <definedName name="CIAS">[1]LISTA!$J$2:$J$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15685" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16432" uniqueCount="1831">
   <si>
     <t>dia</t>
   </si>
@@ -5311,13 +5306,220 @@
   </si>
   <si>
     <t>Outros (Loja)</t>
+  </si>
+  <si>
+    <t>R. Cesário Mota, 1187</t>
+  </si>
+  <si>
+    <t>R. Flórida Paulista, 357</t>
+  </si>
+  <si>
+    <t>R. Emílio Fávero, 625</t>
+  </si>
+  <si>
+    <t>Av. Brasil, 3365</t>
+  </si>
+  <si>
+    <t>R. dos Motoristas, 1 </t>
+  </si>
+  <si>
+    <t>R. Cel Clementino, 1031</t>
+  </si>
+  <si>
+    <t>R. Itaguaçu, 780</t>
+  </si>
+  <si>
+    <t>R. Mario Ferreira de Andrade, 603</t>
+  </si>
+  <si>
+    <t>Jd Cavalheiro Paschoal Inecchi 19</t>
+  </si>
+  <si>
+    <t>R. João Câncio dos Réis Meireles, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Caravelas, 1639 </t>
+  </si>
+  <si>
+    <t>R. Augusto Bortoloti, 350</t>
+  </si>
+  <si>
+    <t>R. Dr. Mata, 1213</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>R. Angra dos Réis, 190</t>
+  </si>
+  <si>
+    <t>EUS0C89</t>
+  </si>
+  <si>
+    <t>DHP5612</t>
+  </si>
+  <si>
+    <t>FWX3C69</t>
+  </si>
+  <si>
+    <t>Ford F1000</t>
+  </si>
+  <si>
+    <t>CDE7B40</t>
+  </si>
+  <si>
+    <t>Ford F250</t>
+  </si>
+  <si>
+    <t>NLD8J58</t>
+  </si>
+  <si>
+    <t>FQC8467</t>
+  </si>
+  <si>
+    <t>NKO5263</t>
+  </si>
+  <si>
+    <t>EHF1427</t>
+  </si>
+  <si>
+    <t>OPR4J17</t>
+  </si>
+  <si>
+    <t>HFU8344</t>
+  </si>
+  <si>
+    <t>EHJ0208</t>
+  </si>
+  <si>
+    <t>AAU5656</t>
+  </si>
+  <si>
+    <t>GTY6894</t>
+  </si>
+  <si>
+    <t>Av. Pref. Newton Reis, 2891</t>
+  </si>
+  <si>
+    <t>R. Alfredo Ferlin, 687</t>
+  </si>
+  <si>
+    <t>Av. Pres. Castelo Branco, 1</t>
+  </si>
+  <si>
+    <t>R. Carlos de Campos, 620</t>
+  </si>
+  <si>
+    <t>CAMPOS ELÍSEOS 03</t>
+  </si>
+  <si>
+    <t>FWV4B95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKI0097 </t>
+  </si>
+  <si>
+    <t>BMW S1000 R</t>
+  </si>
+  <si>
+    <t>EUA0A56</t>
+  </si>
+  <si>
+    <t>Toyota Etios</t>
+  </si>
+  <si>
+    <t>FSP3H32</t>
+  </si>
+  <si>
+    <t>FNH1985</t>
+  </si>
+  <si>
+    <t>R. Espírito Santo, 1975</t>
+  </si>
+  <si>
+    <t>Tv. Jamil Jorge, 234 </t>
+  </si>
+  <si>
+    <t>R. Florinda Bordizan Sampaio, 10</t>
+  </si>
+  <si>
+    <t>Av. Brasil, 498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Gen. Câmara, 2204 </t>
+  </si>
+  <si>
+    <t>R. Lorena, 62</t>
+  </si>
+  <si>
+    <t>R. Sen. Joaquim Miguel, 197</t>
+  </si>
+  <si>
+    <t>R. Humberto Felloni, 477</t>
+  </si>
+  <si>
+    <t>R. Monsenhor Siqueira, 564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Monte Azul, 1044 </t>
+  </si>
+  <si>
+    <t>R. Rio Paraguaçú, 1151</t>
+  </si>
+  <si>
+    <t>R. André Rebouças, 1756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Farjala Moisés, 705 </t>
+  </si>
+  <si>
+    <t>R. Itapura, 10</t>
+  </si>
+  <si>
+    <t>R. Leonor Domiciano Guimarães, 440</t>
+  </si>
+  <si>
+    <t>R. Gen. Câmara, 1518</t>
+  </si>
+  <si>
+    <t>R. Joana Malfará, 150</t>
+  </si>
+  <si>
+    <t>Rua João Clapp, 560</t>
+  </si>
+  <si>
+    <t>R. Cel. Américo Batista, 1450</t>
+  </si>
+  <si>
+    <t>R. México, 100</t>
+  </si>
+  <si>
+    <t>R. Sebastião Ponton, 890</t>
+  </si>
+  <si>
+    <t>R. José de Alencar, 559</t>
+  </si>
+  <si>
+    <t>R. Cap. José Ferreira Diniz, 885 </t>
+  </si>
+  <si>
+    <t>Av. Eduardo Andréia Matarazzo, 4010</t>
+  </si>
+  <si>
+    <t>02 Honda  / Titan Preta / Titan  Azul</t>
+  </si>
+  <si>
+    <t>Honda / Twister Prata</t>
+  </si>
+  <si>
+    <t>Honda / Titan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5457,8 +5659,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5638,8 +5852,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -5754,6 +5980,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5800,10 +6039,23 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5951,7 +6203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5986,7 +6238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6163,7 +6415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6171,14 +6423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC909"/>
+  <dimension ref="A1:AC952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B924" workbookViewId="0">
+      <selection activeCell="O956" sqref="O956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27788,7 +28041,7 @@
       </c>
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="3">
         <v>26</v>
       </c>
       <c r="B353" t="s">
@@ -33882,7 +34135,7 @@
       </c>
     </row>
     <row r="430" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="3">
         <v>25</v>
       </c>
       <c r="B430" t="s">
@@ -64147,7 +64400,7 @@
       </c>
     </row>
     <row r="909" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A909">
+      <c r="A909" s="3">
         <v>27</v>
       </c>
       <c r="B909" t="s">
@@ -64205,6 +64458,2778 @@
         <v>1136</v>
       </c>
       <c r="AC909" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="910" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>27</v>
+      </c>
+      <c r="B910" t="s">
+        <v>27</v>
+      </c>
+      <c r="C910" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D910" t="s">
+        <v>80</v>
+      </c>
+      <c r="E910" t="s">
+        <v>903</v>
+      </c>
+      <c r="F910" t="s">
+        <v>30</v>
+      </c>
+      <c r="G910" t="s">
+        <v>31</v>
+      </c>
+      <c r="H910" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I910" t="s">
+        <v>152</v>
+      </c>
+      <c r="J910" t="s">
+        <v>153</v>
+      </c>
+      <c r="K910" t="s">
+        <v>35</v>
+      </c>
+      <c r="L910" s="4"/>
+      <c r="N910" t="s">
+        <v>37</v>
+      </c>
+      <c r="O910" t="s">
+        <v>38</v>
+      </c>
+      <c r="P910" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q910" t="s">
+        <v>132</v>
+      </c>
+      <c r="R910" t="s">
+        <v>1777</v>
+      </c>
+      <c r="S910">
+        <v>2020</v>
+      </c>
+      <c r="T910" t="s">
+        <v>42</v>
+      </c>
+      <c r="U910" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="911" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>27</v>
+      </c>
+      <c r="B911" t="s">
+        <v>27</v>
+      </c>
+      <c r="C911" s="7">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="D911" t="s">
+        <v>80</v>
+      </c>
+      <c r="E911" t="s">
+        <v>903</v>
+      </c>
+      <c r="F911" t="s">
+        <v>30</v>
+      </c>
+      <c r="G911" t="s">
+        <v>31</v>
+      </c>
+      <c r="H911" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I911" t="s">
+        <v>242</v>
+      </c>
+      <c r="J911" t="s">
+        <v>78</v>
+      </c>
+      <c r="K911" t="s">
+        <v>35</v>
+      </c>
+      <c r="L911" s="4"/>
+      <c r="N911" t="s">
+        <v>37</v>
+      </c>
+      <c r="O911" t="s">
+        <v>66</v>
+      </c>
+      <c r="P911" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q911" t="s">
+        <v>229</v>
+      </c>
+      <c r="R911" t="s">
+        <v>1778</v>
+      </c>
+      <c r="S911">
+        <v>2003</v>
+      </c>
+      <c r="T911" t="s">
+        <v>42</v>
+      </c>
+      <c r="U911" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="912" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>27</v>
+      </c>
+      <c r="B912" t="s">
+        <v>27</v>
+      </c>
+      <c r="C912" s="7">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="D912" t="s">
+        <v>44</v>
+      </c>
+      <c r="E912" t="s">
+        <v>903</v>
+      </c>
+      <c r="F912" t="s">
+        <v>30</v>
+      </c>
+      <c r="G912" t="s">
+        <v>31</v>
+      </c>
+      <c r="H912" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I912" t="s">
+        <v>448</v>
+      </c>
+      <c r="J912" t="s">
+        <v>86</v>
+      </c>
+      <c r="K912" t="s">
+        <v>35</v>
+      </c>
+      <c r="L912" s="4"/>
+      <c r="N912" t="s">
+        <v>37</v>
+      </c>
+      <c r="O912" t="s">
+        <v>100</v>
+      </c>
+      <c r="P912" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q912" t="s">
+        <v>688</v>
+      </c>
+      <c r="R912" t="s">
+        <v>1779</v>
+      </c>
+      <c r="S912">
+        <v>2020</v>
+      </c>
+      <c r="T912" t="s">
+        <v>187</v>
+      </c>
+      <c r="U912" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="913" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>27</v>
+      </c>
+      <c r="B913" t="s">
+        <v>27</v>
+      </c>
+      <c r="C913" s="7">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="D913" t="s">
+        <v>44</v>
+      </c>
+      <c r="E913" t="s">
+        <v>903</v>
+      </c>
+      <c r="F913" t="s">
+        <v>30</v>
+      </c>
+      <c r="G913" t="s">
+        <v>31</v>
+      </c>
+      <c r="H913" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I913" t="s">
+        <v>433</v>
+      </c>
+      <c r="J913" t="s">
+        <v>120</v>
+      </c>
+      <c r="K913" t="s">
+        <v>35</v>
+      </c>
+      <c r="L913" s="5">
+        <v>45440</v>
+      </c>
+      <c r="M913" t="s">
+        <v>167</v>
+      </c>
+      <c r="N913" t="s">
+        <v>37</v>
+      </c>
+      <c r="O913" t="s">
+        <v>66</v>
+      </c>
+      <c r="P913" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q913" t="s">
+        <v>1780</v>
+      </c>
+      <c r="R913" t="s">
+        <v>1781</v>
+      </c>
+      <c r="S913">
+        <v>1985</v>
+      </c>
+      <c r="T913" t="s">
+        <v>42</v>
+      </c>
+      <c r="U913" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>27</v>
+      </c>
+      <c r="B914" t="s">
+        <v>27</v>
+      </c>
+      <c r="C914" s="7">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D914" t="s">
+        <v>58</v>
+      </c>
+      <c r="E914" t="s">
+        <v>903</v>
+      </c>
+      <c r="F914" t="s">
+        <v>30</v>
+      </c>
+      <c r="G914" t="s">
+        <v>53</v>
+      </c>
+      <c r="H914" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I914" t="s">
+        <v>49</v>
+      </c>
+      <c r="J914" t="s">
+        <v>49</v>
+      </c>
+      <c r="K914" t="s">
+        <v>49</v>
+      </c>
+      <c r="L914" s="4"/>
+      <c r="N914" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O914" t="s">
+        <v>407</v>
+      </c>
+      <c r="P914" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q914" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R914" t="s">
+        <v>1783</v>
+      </c>
+      <c r="S914">
+        <v>2009</v>
+      </c>
+      <c r="T914" t="s">
+        <v>42</v>
+      </c>
+      <c r="U914" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="915" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>28</v>
+      </c>
+      <c r="B915" t="s">
+        <v>62</v>
+      </c>
+      <c r="C915" s="7">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D915" t="s">
+        <v>44</v>
+      </c>
+      <c r="E915" t="s">
+        <v>903</v>
+      </c>
+      <c r="F915" t="s">
+        <v>30</v>
+      </c>
+      <c r="G915" t="s">
+        <v>53</v>
+      </c>
+      <c r="H915" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I915" t="s">
+        <v>49</v>
+      </c>
+      <c r="J915" t="s">
+        <v>49</v>
+      </c>
+      <c r="K915" t="s">
+        <v>49</v>
+      </c>
+      <c r="L915" s="4"/>
+      <c r="N915" t="s">
+        <v>37</v>
+      </c>
+      <c r="O915" t="s">
+        <v>66</v>
+      </c>
+      <c r="P915" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q915" t="s">
+        <v>917</v>
+      </c>
+      <c r="R915" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S915">
+        <v>2014</v>
+      </c>
+      <c r="T915" t="s">
+        <v>42</v>
+      </c>
+      <c r="U915" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="916" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>28</v>
+      </c>
+      <c r="B916" t="s">
+        <v>62</v>
+      </c>
+      <c r="C916" s="7">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="D916" t="s">
+        <v>80</v>
+      </c>
+      <c r="E916" t="s">
+        <v>903</v>
+      </c>
+      <c r="F916" t="s">
+        <v>30</v>
+      </c>
+      <c r="G916" t="s">
+        <v>45</v>
+      </c>
+      <c r="H916" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I916" t="s">
+        <v>296</v>
+      </c>
+      <c r="J916" t="s">
+        <v>297</v>
+      </c>
+      <c r="K916" t="s">
+        <v>35</v>
+      </c>
+      <c r="L916" s="5">
+        <v>45441</v>
+      </c>
+      <c r="M916" t="s">
+        <v>270</v>
+      </c>
+      <c r="N916" t="s">
+        <v>37</v>
+      </c>
+      <c r="O916" t="s">
+        <v>38</v>
+      </c>
+      <c r="P916" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q916" t="s">
+        <v>40</v>
+      </c>
+      <c r="R916" t="s">
+        <v>1785</v>
+      </c>
+      <c r="S916">
+        <v>2008</v>
+      </c>
+      <c r="T916" t="s">
+        <v>42</v>
+      </c>
+      <c r="U916" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>24</v>
+      </c>
+      <c r="B917" t="s">
+        <v>95</v>
+      </c>
+      <c r="C917" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D917" t="s">
+        <v>80</v>
+      </c>
+      <c r="E917" t="s">
+        <v>903</v>
+      </c>
+      <c r="F917" t="s">
+        <v>30</v>
+      </c>
+      <c r="G917" t="s">
+        <v>31</v>
+      </c>
+      <c r="H917" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I917" t="s">
+        <v>1770</v>
+      </c>
+      <c r="J917" t="s">
+        <v>568</v>
+      </c>
+      <c r="K917" t="s">
+        <v>35</v>
+      </c>
+      <c r="L917" s="4"/>
+      <c r="N917" t="s">
+        <v>37</v>
+      </c>
+      <c r="O917" t="s">
+        <v>38</v>
+      </c>
+      <c r="P917" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q917" t="s">
+        <v>40</v>
+      </c>
+      <c r="R917" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S917">
+        <v>2008</v>
+      </c>
+      <c r="T917" t="s">
+        <v>42</v>
+      </c>
+      <c r="U917" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="918" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>29</v>
+      </c>
+      <c r="B918" t="s">
+        <v>57</v>
+      </c>
+      <c r="C918" s="7">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D918" t="s">
+        <v>80</v>
+      </c>
+      <c r="E918" t="s">
+        <v>903</v>
+      </c>
+      <c r="F918" t="s">
+        <v>30</v>
+      </c>
+      <c r="G918" t="s">
+        <v>53</v>
+      </c>
+      <c r="H918" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I918" t="s">
+        <v>49</v>
+      </c>
+      <c r="J918" t="s">
+        <v>49</v>
+      </c>
+      <c r="K918" t="s">
+        <v>49</v>
+      </c>
+      <c r="L918" s="4"/>
+      <c r="N918" t="s">
+        <v>37</v>
+      </c>
+      <c r="O918" t="s">
+        <v>100</v>
+      </c>
+      <c r="P918" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q918" t="s">
+        <v>201</v>
+      </c>
+      <c r="R918" t="s">
+        <v>1787</v>
+      </c>
+      <c r="S918">
+        <v>2013</v>
+      </c>
+      <c r="T918" t="s">
+        <v>42</v>
+      </c>
+      <c r="U918" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="919" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>30</v>
+      </c>
+      <c r="B919" t="s">
+        <v>88</v>
+      </c>
+      <c r="C919" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D919" t="s">
+        <v>80</v>
+      </c>
+      <c r="E919" t="s">
+        <v>903</v>
+      </c>
+      <c r="F919" t="s">
+        <v>30</v>
+      </c>
+      <c r="G919" t="s">
+        <v>45</v>
+      </c>
+      <c r="H919" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I919" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J919" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K919" t="s">
+        <v>35</v>
+      </c>
+      <c r="L919" s="4"/>
+      <c r="N919" t="s">
+        <v>65</v>
+      </c>
+      <c r="O919" t="s">
+        <v>100</v>
+      </c>
+      <c r="P919" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q919" t="s">
+        <v>267</v>
+      </c>
+      <c r="R919" t="s">
+        <v>1788</v>
+      </c>
+      <c r="S919">
+        <v>2007</v>
+      </c>
+      <c r="T919" t="s">
+        <v>42</v>
+      </c>
+      <c r="U919" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="920" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>31</v>
+      </c>
+      <c r="B920" t="s">
+        <v>95</v>
+      </c>
+      <c r="C920" s="7">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D920" t="s">
+        <v>80</v>
+      </c>
+      <c r="E920" t="s">
+        <v>903</v>
+      </c>
+      <c r="F920" t="s">
+        <v>30</v>
+      </c>
+      <c r="G920" t="s">
+        <v>31</v>
+      </c>
+      <c r="H920" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I920" t="s">
+        <v>148</v>
+      </c>
+      <c r="J920" t="s">
+        <v>149</v>
+      </c>
+      <c r="K920" t="s">
+        <v>35</v>
+      </c>
+      <c r="L920" s="4"/>
+      <c r="N920" t="s">
+        <v>37</v>
+      </c>
+      <c r="O920" t="s">
+        <v>38</v>
+      </c>
+      <c r="P920" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q920" t="s">
+        <v>145</v>
+      </c>
+      <c r="R920" t="s">
+        <v>1789</v>
+      </c>
+      <c r="S920">
+        <v>2010</v>
+      </c>
+      <c r="T920" t="s">
+        <v>42</v>
+      </c>
+      <c r="U920" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="921" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>31</v>
+      </c>
+      <c r="B921" t="s">
+        <v>95</v>
+      </c>
+      <c r="C921" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D921" t="s">
+        <v>28</v>
+      </c>
+      <c r="E921" t="s">
+        <v>903</v>
+      </c>
+      <c r="F921" t="s">
+        <v>30</v>
+      </c>
+      <c r="G921" t="s">
+        <v>53</v>
+      </c>
+      <c r="H921" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I921" t="s">
+        <v>168</v>
+      </c>
+      <c r="J921" t="s">
+        <v>168</v>
+      </c>
+      <c r="K921" t="s">
+        <v>168</v>
+      </c>
+      <c r="L921" s="4"/>
+      <c r="N921" t="s">
+        <v>37</v>
+      </c>
+      <c r="O921" t="s">
+        <v>38</v>
+      </c>
+      <c r="P921" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q921" t="s">
+        <v>225</v>
+      </c>
+      <c r="R921" t="s">
+        <v>1790</v>
+      </c>
+      <c r="S921">
+        <v>2005</v>
+      </c>
+      <c r="T921" t="s">
+        <v>42</v>
+      </c>
+      <c r="U921" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="922" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>2</v>
+      </c>
+      <c r="B922" t="s">
+        <v>250</v>
+      </c>
+      <c r="C922" s="7">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="D922" t="s">
+        <v>58</v>
+      </c>
+      <c r="E922" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F922" t="s">
+        <v>30</v>
+      </c>
+      <c r="G922" t="s">
+        <v>31</v>
+      </c>
+      <c r="H922" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I922" t="s">
+        <v>424</v>
+      </c>
+      <c r="J922" t="s">
+        <v>425</v>
+      </c>
+      <c r="K922" t="s">
+        <v>35</v>
+      </c>
+      <c r="L922" s="4"/>
+      <c r="N922" t="s">
+        <v>37</v>
+      </c>
+      <c r="O922" t="s">
+        <v>100</v>
+      </c>
+      <c r="P922" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q922" t="s">
+        <v>531</v>
+      </c>
+      <c r="R922" t="s">
+        <v>1791</v>
+      </c>
+      <c r="S922">
+        <v>1995</v>
+      </c>
+      <c r="T922" t="s">
+        <v>42</v>
+      </c>
+      <c r="U922" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="923" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>28</v>
+      </c>
+      <c r="B923" t="s">
+        <v>62</v>
+      </c>
+      <c r="C923" s="6">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="D923" t="s">
+        <v>80</v>
+      </c>
+      <c r="E923" t="s">
+        <v>903</v>
+      </c>
+      <c r="F923" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G923" t="s">
+        <v>53</v>
+      </c>
+      <c r="H923" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I923" t="s">
+        <v>49</v>
+      </c>
+      <c r="J923" t="s">
+        <v>49</v>
+      </c>
+      <c r="K923" t="s">
+        <v>49</v>
+      </c>
+      <c r="L923" s="5">
+        <v>45442</v>
+      </c>
+      <c r="M923" t="s">
+        <v>49</v>
+      </c>
+      <c r="N923" t="s">
+        <v>37</v>
+      </c>
+      <c r="O923" t="s">
+        <v>38</v>
+      </c>
+      <c r="P923" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q923" t="s">
+        <v>91</v>
+      </c>
+      <c r="R923" t="s">
+        <v>1797</v>
+      </c>
+      <c r="S923">
+        <v>2020</v>
+      </c>
+      <c r="T923" t="s">
+        <v>42</v>
+      </c>
+      <c r="U923" t="s">
+        <v>43</v>
+      </c>
+      <c r="V923">
+        <v>3</v>
+      </c>
+      <c r="W923" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X923" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y923" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z923" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AB923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>28</v>
+      </c>
+      <c r="B924" t="s">
+        <v>62</v>
+      </c>
+      <c r="C924" s="6">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="D924" t="s">
+        <v>80</v>
+      </c>
+      <c r="E924" t="s">
+        <v>903</v>
+      </c>
+      <c r="F924" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G924" t="s">
+        <v>53</v>
+      </c>
+      <c r="H924" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I924" t="s">
+        <v>49</v>
+      </c>
+      <c r="J924" t="s">
+        <v>49</v>
+      </c>
+      <c r="K924" t="s">
+        <v>49</v>
+      </c>
+      <c r="L924" s="5">
+        <v>45441</v>
+      </c>
+      <c r="M924" t="s">
+        <v>49</v>
+      </c>
+      <c r="N924" t="s">
+        <v>37</v>
+      </c>
+      <c r="O924" t="s">
+        <v>66</v>
+      </c>
+      <c r="P924" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q924" t="s">
+        <v>917</v>
+      </c>
+      <c r="R924" t="s">
+        <v>1798</v>
+      </c>
+      <c r="S924">
+        <v>2020</v>
+      </c>
+      <c r="T924" t="s">
+        <v>42</v>
+      </c>
+      <c r="U924" t="s">
+        <v>43</v>
+      </c>
+      <c r="V924">
+        <v>3</v>
+      </c>
+      <c r="W924" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X924" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y924" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z924" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AB924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>31</v>
+      </c>
+      <c r="B925" t="s">
+        <v>95</v>
+      </c>
+      <c r="C925" s="6">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="D925" t="s">
+        <v>80</v>
+      </c>
+      <c r="E925" t="s">
+        <v>903</v>
+      </c>
+      <c r="F925" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G925" t="s">
+        <v>31</v>
+      </c>
+      <c r="H925" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I925" t="s">
+        <v>228</v>
+      </c>
+      <c r="J925" t="s">
+        <v>120</v>
+      </c>
+      <c r="K925" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L925" s="4"/>
+      <c r="N925" t="s">
+        <v>37</v>
+      </c>
+      <c r="O925" t="s">
+        <v>38</v>
+      </c>
+      <c r="P925" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q925" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R925" t="s">
+        <v>1800</v>
+      </c>
+      <c r="S925">
+        <v>2010</v>
+      </c>
+      <c r="T925" t="s">
+        <v>42</v>
+      </c>
+      <c r="U925" t="s">
+        <v>43</v>
+      </c>
+      <c r="V925">
+        <v>2</v>
+      </c>
+      <c r="W925" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X925" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Y925" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z925" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA925" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="926" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>31</v>
+      </c>
+      <c r="B926" t="s">
+        <v>95</v>
+      </c>
+      <c r="C926" s="6">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D926" t="s">
+        <v>44</v>
+      </c>
+      <c r="E926" t="s">
+        <v>903</v>
+      </c>
+      <c r="F926" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G926" t="s">
+        <v>31</v>
+      </c>
+      <c r="H926" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I926" t="s">
+        <v>148</v>
+      </c>
+      <c r="J926" t="s">
+        <v>149</v>
+      </c>
+      <c r="K926" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L926" s="5">
+        <v>45445</v>
+      </c>
+      <c r="M926" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N926" t="s">
+        <v>37</v>
+      </c>
+      <c r="O926" t="s">
+        <v>100</v>
+      </c>
+      <c r="P926" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q926" t="s">
+        <v>1801</v>
+      </c>
+      <c r="R926" t="s">
+        <v>1802</v>
+      </c>
+      <c r="S926">
+        <v>2014</v>
+      </c>
+      <c r="T926" t="s">
+        <v>42</v>
+      </c>
+      <c r="U926" t="s">
+        <v>43</v>
+      </c>
+      <c r="V926">
+        <v>1</v>
+      </c>
+      <c r="W926" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X926" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y926" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z926" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AB926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>1</v>
+      </c>
+      <c r="B927" t="s">
+        <v>110</v>
+      </c>
+      <c r="C927" s="6">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="D927" t="s">
+        <v>28</v>
+      </c>
+      <c r="E927" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F927" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G927" t="s">
+        <v>53</v>
+      </c>
+      <c r="H927" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I927" t="s">
+        <v>970</v>
+      </c>
+      <c r="J927" t="s">
+        <v>970</v>
+      </c>
+      <c r="K927" t="s">
+        <v>970</v>
+      </c>
+      <c r="L927" s="4"/>
+      <c r="N927" t="s">
+        <v>401</v>
+      </c>
+      <c r="O927" t="s">
+        <v>66</v>
+      </c>
+      <c r="P927" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q927" t="s">
+        <v>206</v>
+      </c>
+      <c r="R927" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S927">
+        <v>2016</v>
+      </c>
+      <c r="T927" t="s">
+        <v>42</v>
+      </c>
+      <c r="U927" t="s">
+        <v>43</v>
+      </c>
+      <c r="V927">
+        <v>7</v>
+      </c>
+      <c r="W927" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X927" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y927" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z927" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="928" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>27</v>
+      </c>
+      <c r="B928" t="s">
+        <v>27</v>
+      </c>
+      <c r="C928" s="6">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="D928" t="s">
+        <v>80</v>
+      </c>
+      <c r="E928" t="s">
+        <v>903</v>
+      </c>
+      <c r="F928" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G928" t="s">
+        <v>45</v>
+      </c>
+      <c r="H928" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I928" t="s">
+        <v>296</v>
+      </c>
+      <c r="J928" t="s">
+        <v>297</v>
+      </c>
+      <c r="K928" t="s">
+        <v>35</v>
+      </c>
+      <c r="N928" t="s">
+        <v>37</v>
+      </c>
+      <c r="T928" t="s">
+        <v>42</v>
+      </c>
+      <c r="U928" t="s">
+        <v>43</v>
+      </c>
+      <c r="V928">
+        <v>2</v>
+      </c>
+      <c r="W928" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X928" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y928" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z928" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA928" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AC928" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="929" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>27</v>
+      </c>
+      <c r="B929" t="s">
+        <v>27</v>
+      </c>
+      <c r="C929" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D929" t="s">
+        <v>80</v>
+      </c>
+      <c r="E929" t="s">
+        <v>903</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G929" t="s">
+        <v>45</v>
+      </c>
+      <c r="H929" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I929" t="s">
+        <v>270</v>
+      </c>
+      <c r="J929" t="s">
+        <v>271</v>
+      </c>
+      <c r="K929" t="s">
+        <v>35</v>
+      </c>
+      <c r="N929" t="s">
+        <v>37</v>
+      </c>
+      <c r="T929" t="s">
+        <v>42</v>
+      </c>
+      <c r="U929" t="s">
+        <v>75</v>
+      </c>
+      <c r="V929">
+        <v>2</v>
+      </c>
+      <c r="W929" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X929" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y929" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z929" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC929" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="930" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>27</v>
+      </c>
+      <c r="B930" t="s">
+        <v>27</v>
+      </c>
+      <c r="C930" s="6">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="D930" t="s">
+        <v>80</v>
+      </c>
+      <c r="E930" t="s">
+        <v>903</v>
+      </c>
+      <c r="F930" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G930" t="s">
+        <v>45</v>
+      </c>
+      <c r="H930" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I930" t="s">
+        <v>204</v>
+      </c>
+      <c r="J930" t="s">
+        <v>205</v>
+      </c>
+      <c r="K930" t="s">
+        <v>35</v>
+      </c>
+      <c r="N930" t="s">
+        <v>37</v>
+      </c>
+      <c r="T930" t="s">
+        <v>42</v>
+      </c>
+      <c r="U930" t="s">
+        <v>43</v>
+      </c>
+      <c r="V930">
+        <v>3</v>
+      </c>
+      <c r="W930" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X930" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y930" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z930" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC930" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="931" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>28</v>
+      </c>
+      <c r="B931" t="s">
+        <v>62</v>
+      </c>
+      <c r="C931" s="6">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="D931" t="s">
+        <v>44</v>
+      </c>
+      <c r="E931" t="s">
+        <v>903</v>
+      </c>
+      <c r="F931" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G931" t="s">
+        <v>31</v>
+      </c>
+      <c r="H931" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I931" t="s">
+        <v>382</v>
+      </c>
+      <c r="J931" t="s">
+        <v>34</v>
+      </c>
+      <c r="K931" t="s">
+        <v>35</v>
+      </c>
+      <c r="N931" t="s">
+        <v>37</v>
+      </c>
+      <c r="T931" t="s">
+        <v>42</v>
+      </c>
+      <c r="U931" t="s">
+        <v>43</v>
+      </c>
+      <c r="V931">
+        <v>1</v>
+      </c>
+      <c r="W931" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X931" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y931" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z931" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA931" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AC931" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="932" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>28</v>
+      </c>
+      <c r="B932" t="s">
+        <v>62</v>
+      </c>
+      <c r="C932" s="6">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="D932" t="s">
+        <v>44</v>
+      </c>
+      <c r="E932" t="s">
+        <v>903</v>
+      </c>
+      <c r="F932" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G932" t="s">
+        <v>45</v>
+      </c>
+      <c r="H932" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I932" t="s">
+        <v>771</v>
+      </c>
+      <c r="J932" t="s">
+        <v>772</v>
+      </c>
+      <c r="K932" t="s">
+        <v>35</v>
+      </c>
+      <c r="N932" t="s">
+        <v>90</v>
+      </c>
+      <c r="T932" t="s">
+        <v>42</v>
+      </c>
+      <c r="U932" t="s">
+        <v>75</v>
+      </c>
+      <c r="V932">
+        <v>1</v>
+      </c>
+      <c r="W932" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X932" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Y932" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z932" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA932" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AC932" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="933" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>28</v>
+      </c>
+      <c r="B933" t="s">
+        <v>62</v>
+      </c>
+      <c r="C933" s="6">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D933" t="s">
+        <v>44</v>
+      </c>
+      <c r="E933" t="s">
+        <v>903</v>
+      </c>
+      <c r="F933" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G933" t="s">
+        <v>31</v>
+      </c>
+      <c r="H933" t="s">
+        <v>1809</v>
+      </c>
+      <c r="I933" t="s">
+        <v>64</v>
+      </c>
+      <c r="J933" t="s">
+        <v>425</v>
+      </c>
+      <c r="K933" t="s">
+        <v>35</v>
+      </c>
+      <c r="N933" t="s">
+        <v>37</v>
+      </c>
+      <c r="T933" t="s">
+        <v>42</v>
+      </c>
+      <c r="U933" t="s">
+        <v>75</v>
+      </c>
+      <c r="V933">
+        <v>2</v>
+      </c>
+      <c r="W933" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X933" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y933" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z933" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA933" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AC933" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="934" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>24</v>
+      </c>
+      <c r="B934" t="s">
+        <v>95</v>
+      </c>
+      <c r="C934" s="6">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="D934" t="s">
+        <v>28</v>
+      </c>
+      <c r="E934" t="s">
+        <v>903</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G934" t="s">
+        <v>53</v>
+      </c>
+      <c r="H934" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I934" t="s">
+        <v>49</v>
+      </c>
+      <c r="J934" t="s">
+        <v>49</v>
+      </c>
+      <c r="K934" t="s">
+        <v>49</v>
+      </c>
+      <c r="N934" t="s">
+        <v>37</v>
+      </c>
+      <c r="T934" t="s">
+        <v>42</v>
+      </c>
+      <c r="U934" t="s">
+        <v>43</v>
+      </c>
+      <c r="V934">
+        <v>2</v>
+      </c>
+      <c r="W934" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X934" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y934" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z934" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC934" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="935" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>27</v>
+      </c>
+      <c r="B935" t="s">
+        <v>27</v>
+      </c>
+      <c r="C935" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D935" t="s">
+        <v>80</v>
+      </c>
+      <c r="E935" t="s">
+        <v>903</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G935" t="s">
+        <v>31</v>
+      </c>
+      <c r="H935" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I935" t="s">
+        <v>228</v>
+      </c>
+      <c r="J935" t="s">
+        <v>120</v>
+      </c>
+      <c r="K935" t="s">
+        <v>35</v>
+      </c>
+      <c r="N935" t="s">
+        <v>37</v>
+      </c>
+      <c r="T935" t="s">
+        <v>42</v>
+      </c>
+      <c r="U935" t="s">
+        <v>75</v>
+      </c>
+      <c r="V935">
+        <v>2</v>
+      </c>
+      <c r="W935" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X935" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y935" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z935" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA935" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC935" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="936" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>26</v>
+      </c>
+      <c r="B936" t="s">
+        <v>250</v>
+      </c>
+      <c r="C936" s="6">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D936" t="s">
+        <v>80</v>
+      </c>
+      <c r="E936" t="s">
+        <v>903</v>
+      </c>
+      <c r="F936" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G936" t="s">
+        <v>31</v>
+      </c>
+      <c r="H936" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I936" t="s">
+        <v>71</v>
+      </c>
+      <c r="J936" t="s">
+        <v>72</v>
+      </c>
+      <c r="K936" t="s">
+        <v>35</v>
+      </c>
+      <c r="N936" t="s">
+        <v>37</v>
+      </c>
+      <c r="T936" t="s">
+        <v>42</v>
+      </c>
+      <c r="U936" t="s">
+        <v>43</v>
+      </c>
+      <c r="V936">
+        <v>2</v>
+      </c>
+      <c r="W936" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X936" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y936" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z936" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC936" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="937" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>26</v>
+      </c>
+      <c r="B937" t="s">
+        <v>250</v>
+      </c>
+      <c r="C937" s="6">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D937" t="s">
+        <v>44</v>
+      </c>
+      <c r="E937" t="s">
+        <v>903</v>
+      </c>
+      <c r="F937" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G937" t="s">
+        <v>31</v>
+      </c>
+      <c r="H937" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I937" t="s">
+        <v>424</v>
+      </c>
+      <c r="J937" t="s">
+        <v>425</v>
+      </c>
+      <c r="K937" t="s">
+        <v>35</v>
+      </c>
+      <c r="N937" t="s">
+        <v>37</v>
+      </c>
+      <c r="T937" t="s">
+        <v>42</v>
+      </c>
+      <c r="U937" t="s">
+        <v>75</v>
+      </c>
+      <c r="V937">
+        <v>1</v>
+      </c>
+      <c r="W937" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X937" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y937" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z937" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA937" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AC937" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="938" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>20</v>
+      </c>
+      <c r="B938" t="s">
+        <v>27</v>
+      </c>
+      <c r="C938" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D938" t="s">
+        <v>58</v>
+      </c>
+      <c r="E938" t="s">
+        <v>903</v>
+      </c>
+      <c r="F938" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G938" t="s">
+        <v>45</v>
+      </c>
+      <c r="H938" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I938" t="s">
+        <v>911</v>
+      </c>
+      <c r="J938" t="s">
+        <v>912</v>
+      </c>
+      <c r="K938" t="s">
+        <v>35</v>
+      </c>
+      <c r="N938" t="s">
+        <v>37</v>
+      </c>
+      <c r="T938" t="s">
+        <v>42</v>
+      </c>
+      <c r="U938" t="s">
+        <v>75</v>
+      </c>
+      <c r="V938">
+        <v>1</v>
+      </c>
+      <c r="W938" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X938" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y938" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Z938" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC938" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="939" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>27</v>
+      </c>
+      <c r="B939" t="s">
+        <v>27</v>
+      </c>
+      <c r="C939" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D939" t="s">
+        <v>80</v>
+      </c>
+      <c r="E939" t="s">
+        <v>903</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G939" t="s">
+        <v>45</v>
+      </c>
+      <c r="H939" t="s">
+        <v>1815</v>
+      </c>
+      <c r="I939" t="s">
+        <v>270</v>
+      </c>
+      <c r="J939" t="s">
+        <v>271</v>
+      </c>
+      <c r="K939" t="s">
+        <v>35</v>
+      </c>
+      <c r="N939" t="s">
+        <v>37</v>
+      </c>
+      <c r="T939" t="s">
+        <v>42</v>
+      </c>
+      <c r="U939" t="s">
+        <v>75</v>
+      </c>
+      <c r="V939">
+        <v>2</v>
+      </c>
+      <c r="W939" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X939" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y939" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z939" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC939" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="940" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>22</v>
+      </c>
+      <c r="B940" t="s">
+        <v>57</v>
+      </c>
+      <c r="C940" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D940" t="s">
+        <v>28</v>
+      </c>
+      <c r="E940" t="s">
+        <v>903</v>
+      </c>
+      <c r="F940" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G940" t="s">
+        <v>31</v>
+      </c>
+      <c r="H940" t="s">
+        <v>1816</v>
+      </c>
+      <c r="I940" t="s">
+        <v>237</v>
+      </c>
+      <c r="J940" t="s">
+        <v>238</v>
+      </c>
+      <c r="K940" t="s">
+        <v>35</v>
+      </c>
+      <c r="N940" t="s">
+        <v>37</v>
+      </c>
+      <c r="T940" t="s">
+        <v>42</v>
+      </c>
+      <c r="U940" t="s">
+        <v>75</v>
+      </c>
+      <c r="V940">
+        <v>2</v>
+      </c>
+      <c r="W940" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X940" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y940" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z940" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC940" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="941" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>29</v>
+      </c>
+      <c r="B941" t="s">
+        <v>57</v>
+      </c>
+      <c r="C941" s="6">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="D941" t="s">
+        <v>44</v>
+      </c>
+      <c r="E941" t="s">
+        <v>903</v>
+      </c>
+      <c r="F941" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G941" t="s">
+        <v>31</v>
+      </c>
+      <c r="H941" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I941" t="s">
+        <v>112</v>
+      </c>
+      <c r="J941" t="s">
+        <v>113</v>
+      </c>
+      <c r="K941" t="s">
+        <v>35</v>
+      </c>
+      <c r="N941" t="s">
+        <v>37</v>
+      </c>
+      <c r="T941" t="s">
+        <v>42</v>
+      </c>
+      <c r="U941" t="s">
+        <v>43</v>
+      </c>
+      <c r="V941">
+        <v>1</v>
+      </c>
+      <c r="W941" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X941" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y941" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z941" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA941" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC941" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="942" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>29</v>
+      </c>
+      <c r="B942" t="s">
+        <v>57</v>
+      </c>
+      <c r="C942" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D942" t="s">
+        <v>28</v>
+      </c>
+      <c r="E942" t="s">
+        <v>903</v>
+      </c>
+      <c r="F942" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G942" t="s">
+        <v>45</v>
+      </c>
+      <c r="H942" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I942" t="s">
+        <v>348</v>
+      </c>
+      <c r="J942" t="s">
+        <v>349</v>
+      </c>
+      <c r="K942" t="s">
+        <v>35</v>
+      </c>
+      <c r="N942" t="s">
+        <v>37</v>
+      </c>
+      <c r="T942" t="s">
+        <v>42</v>
+      </c>
+      <c r="U942" t="s">
+        <v>75</v>
+      </c>
+      <c r="V942">
+        <v>2</v>
+      </c>
+      <c r="W942" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X942" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y942" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z942" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC942" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="943" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>30</v>
+      </c>
+      <c r="B943" t="s">
+        <v>88</v>
+      </c>
+      <c r="C943" s="6">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="D943" t="s">
+        <v>80</v>
+      </c>
+      <c r="E943" t="s">
+        <v>903</v>
+      </c>
+      <c r="F943" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G943" t="s">
+        <v>45</v>
+      </c>
+      <c r="H943" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I943" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J943" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K943" t="s">
+        <v>35</v>
+      </c>
+      <c r="N943" t="s">
+        <v>90</v>
+      </c>
+      <c r="T943" t="s">
+        <v>42</v>
+      </c>
+      <c r="U943" t="s">
+        <v>43</v>
+      </c>
+      <c r="V943">
+        <v>1</v>
+      </c>
+      <c r="W943" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X943" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y943" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z943" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC943" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="944" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>29</v>
+      </c>
+      <c r="B944" t="s">
+        <v>57</v>
+      </c>
+      <c r="C944" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D944" t="s">
+        <v>58</v>
+      </c>
+      <c r="E944" t="s">
+        <v>903</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G944" t="s">
+        <v>45</v>
+      </c>
+      <c r="H944" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I944" t="s">
+        <v>204</v>
+      </c>
+      <c r="J944" t="s">
+        <v>205</v>
+      </c>
+      <c r="K944" t="s">
+        <v>35</v>
+      </c>
+      <c r="N944" t="s">
+        <v>37</v>
+      </c>
+      <c r="T944" t="s">
+        <v>42</v>
+      </c>
+      <c r="U944" t="s">
+        <v>43</v>
+      </c>
+      <c r="V944">
+        <v>2</v>
+      </c>
+      <c r="W944" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X944" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Y944" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z944" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC944" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="945" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>31</v>
+      </c>
+      <c r="B945" t="s">
+        <v>95</v>
+      </c>
+      <c r="C945" s="6">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D945" t="s">
+        <v>80</v>
+      </c>
+      <c r="E945" t="s">
+        <v>903</v>
+      </c>
+      <c r="F945" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G945" t="s">
+        <v>31</v>
+      </c>
+      <c r="H945" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I945" t="s">
+        <v>431</v>
+      </c>
+      <c r="J945" t="s">
+        <v>432</v>
+      </c>
+      <c r="K945" t="s">
+        <v>35</v>
+      </c>
+      <c r="N945" t="s">
+        <v>37</v>
+      </c>
+      <c r="T945" t="s">
+        <v>42</v>
+      </c>
+      <c r="U945" t="s">
+        <v>75</v>
+      </c>
+      <c r="V945">
+        <v>2</v>
+      </c>
+      <c r="W945" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X945" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y945" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z945" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC945" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="946" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>31</v>
+      </c>
+      <c r="B946" t="s">
+        <v>95</v>
+      </c>
+      <c r="C946" s="6">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D946" t="s">
+        <v>80</v>
+      </c>
+      <c r="E946" t="s">
+        <v>903</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G946" t="s">
+        <v>45</v>
+      </c>
+      <c r="H946" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I946" t="s">
+        <v>771</v>
+      </c>
+      <c r="J946" t="s">
+        <v>772</v>
+      </c>
+      <c r="K946" t="s">
+        <v>35</v>
+      </c>
+      <c r="N946" t="s">
+        <v>90</v>
+      </c>
+      <c r="T946" t="s">
+        <v>42</v>
+      </c>
+      <c r="U946" t="s">
+        <v>43</v>
+      </c>
+      <c r="V946">
+        <v>1</v>
+      </c>
+      <c r="W946" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X946" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y946" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z946" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC946" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="947" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>31</v>
+      </c>
+      <c r="B947" t="s">
+        <v>95</v>
+      </c>
+      <c r="C947" s="6">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="D947" t="s">
+        <v>80</v>
+      </c>
+      <c r="E947" t="s">
+        <v>903</v>
+      </c>
+      <c r="F947" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G947" t="s">
+        <v>31</v>
+      </c>
+      <c r="H947" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I947" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J947" t="s">
+        <v>266</v>
+      </c>
+      <c r="K947" t="s">
+        <v>35</v>
+      </c>
+      <c r="N947" t="s">
+        <v>37</v>
+      </c>
+      <c r="T947" t="s">
+        <v>42</v>
+      </c>
+      <c r="U947" t="s">
+        <v>75</v>
+      </c>
+      <c r="V947">
+        <v>1</v>
+      </c>
+      <c r="W947" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X947" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Y947" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z947" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC947" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="948" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>31</v>
+      </c>
+      <c r="B948" t="s">
+        <v>95</v>
+      </c>
+      <c r="C948" s="6">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="D948" t="s">
+        <v>58</v>
+      </c>
+      <c r="E948" t="s">
+        <v>903</v>
+      </c>
+      <c r="F948" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G948" t="s">
+        <v>45</v>
+      </c>
+      <c r="H948" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I948" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J948" t="s">
+        <v>349</v>
+      </c>
+      <c r="K948" t="s">
+        <v>35</v>
+      </c>
+      <c r="N948" t="s">
+        <v>1689</v>
+      </c>
+      <c r="T948" t="s">
+        <v>42</v>
+      </c>
+      <c r="U948" t="s">
+        <v>75</v>
+      </c>
+      <c r="V948">
+        <v>1</v>
+      </c>
+      <c r="W948" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X948" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Y948" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Z948" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC948" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="949" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>31</v>
+      </c>
+      <c r="B949" t="s">
+        <v>95</v>
+      </c>
+      <c r="C949" s="6">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D949" t="s">
+        <v>44</v>
+      </c>
+      <c r="E949" t="s">
+        <v>903</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G949" t="s">
+        <v>31</v>
+      </c>
+      <c r="H949" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I949" t="s">
+        <v>431</v>
+      </c>
+      <c r="J949" t="s">
+        <v>432</v>
+      </c>
+      <c r="K949" t="s">
+        <v>35</v>
+      </c>
+      <c r="N949" t="s">
+        <v>37</v>
+      </c>
+      <c r="T949" t="s">
+        <v>42</v>
+      </c>
+      <c r="U949" t="s">
+        <v>43</v>
+      </c>
+      <c r="V949">
+        <v>2</v>
+      </c>
+      <c r="W949" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X949" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y949" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z949" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA949" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AC949" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="950" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>1</v>
+      </c>
+      <c r="B950" t="s">
+        <v>110</v>
+      </c>
+      <c r="C950" s="6">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="D950" t="s">
+        <v>44</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G950" t="s">
+        <v>53</v>
+      </c>
+      <c r="H950" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I950" t="s">
+        <v>168</v>
+      </c>
+      <c r="J950" t="s">
+        <v>168</v>
+      </c>
+      <c r="K950" t="s">
+        <v>168</v>
+      </c>
+      <c r="N950" t="s">
+        <v>90</v>
+      </c>
+      <c r="T950" t="s">
+        <v>42</v>
+      </c>
+      <c r="U950" t="s">
+        <v>43</v>
+      </c>
+      <c r="V950">
+        <v>3</v>
+      </c>
+      <c r="W950" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X950" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y950" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z950" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC950" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="951" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>1</v>
+      </c>
+      <c r="B951" t="s">
+        <v>110</v>
+      </c>
+      <c r="C951" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D951" t="s">
+        <v>44</v>
+      </c>
+      <c r="E951" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F951" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G951" t="s">
+        <v>45</v>
+      </c>
+      <c r="H951" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I951" t="s">
+        <v>97</v>
+      </c>
+      <c r="J951" t="s">
+        <v>98</v>
+      </c>
+      <c r="K951" t="s">
+        <v>35</v>
+      </c>
+      <c r="N951" t="s">
+        <v>37</v>
+      </c>
+      <c r="T951" t="s">
+        <v>42</v>
+      </c>
+      <c r="U951" t="s">
+        <v>43</v>
+      </c>
+      <c r="V951">
+        <v>3</v>
+      </c>
+      <c r="W951" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X951" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y951" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z951" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC951" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="952" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>1</v>
+      </c>
+      <c r="B952" t="s">
+        <v>110</v>
+      </c>
+      <c r="C952" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D952" t="s">
+        <v>80</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G952" t="s">
+        <v>31</v>
+      </c>
+      <c r="H952" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I952" t="s">
+        <v>152</v>
+      </c>
+      <c r="J952" t="s">
+        <v>153</v>
+      </c>
+      <c r="K952" t="s">
+        <v>35</v>
+      </c>
+      <c r="N952" t="s">
+        <v>37</v>
+      </c>
+      <c r="T952" t="s">
+        <v>42</v>
+      </c>
+      <c r="U952" t="s">
+        <v>43</v>
+      </c>
+      <c r="V952">
+        <v>1</v>
+      </c>
+      <c r="W952" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X952" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y952" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z952" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC952" t="s">
         <v>1737</v>
       </c>
     </row>

--- a/veic_produto.xlsx
+++ b/veic_produto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16432" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17191" uniqueCount="1898">
   <si>
     <t>dia</t>
   </si>
@@ -5513,6 +5513,207 @@
   </si>
   <si>
     <t>Honda / Titan</t>
+  </si>
+  <si>
+    <t>R. Javari, 2850 </t>
+  </si>
+  <si>
+    <t>Av. Thomaz Alberto Whately, 2500</t>
+  </si>
+  <si>
+    <t>Av. Fábio Barreto, 380</t>
+  </si>
+  <si>
+    <t>R. Padre Bento Dias Pacheco, 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. Mal. Costa e Silva, 1468 </t>
+  </si>
+  <si>
+    <t>R. Valentina Lanzone Senteleghe, 100</t>
+  </si>
+  <si>
+    <t>Rua Domingos Elencione, 30</t>
+  </si>
+  <si>
+    <t>Av. Treze de Maio, 500</t>
+  </si>
+  <si>
+    <t>Av. Rio Pardo, 2120</t>
+  </si>
+  <si>
+    <t>Tv. Vanderci Matiusso, 54</t>
+  </si>
+  <si>
+    <t>R. Niterói, 835</t>
+  </si>
+  <si>
+    <t>R. França Júnior, 680</t>
+  </si>
+  <si>
+    <t>R. Marquês de Pombal, 1900</t>
+  </si>
+  <si>
+    <t>R. Paulo Marzola, 1015</t>
+  </si>
+  <si>
+    <t>R. Maria Auxiliadora Abranches de Faria, 405</t>
+  </si>
+  <si>
+    <t>R. Japurá, 3055</t>
+  </si>
+  <si>
+    <t>R. Flora Pietrolongo Zácaro, 120</t>
+  </si>
+  <si>
+    <t>R. Capitão Salomão, 733</t>
+  </si>
+  <si>
+    <t>R. Buarque, 736</t>
+  </si>
+  <si>
+    <t>R. Dr. José Otávio de Oliveira, 605</t>
+  </si>
+  <si>
+    <t>R. André Rebouças, 625</t>
+  </si>
+  <si>
+    <t>R. Floriano Peixoto, 906</t>
+  </si>
+  <si>
+    <t>Mottu / Sport 110 / Preta</t>
+  </si>
+  <si>
+    <t>R. José Buischi, 254</t>
+  </si>
+  <si>
+    <t>CUF2J48</t>
+  </si>
+  <si>
+    <t>R. Benedito José Ferreira, 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Iguape, 3 </t>
+  </si>
+  <si>
+    <t>R. Eugênio Del Lama, 20</t>
+  </si>
+  <si>
+    <t>R. Rio Negro, 1059</t>
+  </si>
+  <si>
+    <t>R. Pinheiro Machado, 1610</t>
+  </si>
+  <si>
+    <t>Estr. Antônia Mugnatto Marincek, 2255</t>
+  </si>
+  <si>
+    <t>R. Antônio Milena, 1515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. Mogiana, 649 </t>
+  </si>
+  <si>
+    <t>Av. Clóvis Bevilacqua, 342</t>
+  </si>
+  <si>
+    <t>R. Rio Paramirim, 576</t>
+  </si>
+  <si>
+    <t>R. Frei Caneca, 352</t>
+  </si>
+  <si>
+    <t>R. Paraíba, 811</t>
+  </si>
+  <si>
+    <t>R. Itapura, 708</t>
+  </si>
+  <si>
+    <t>R. Oito</t>
+  </si>
+  <si>
+    <t>R. Íria Amâncio de Almeida, 355</t>
+  </si>
+  <si>
+    <t>Rod. Anhanguera, 308</t>
+  </si>
+  <si>
+    <t>R. Osvaldo André, 43</t>
+  </si>
+  <si>
+    <t>R. Rio Purús, 767</t>
+  </si>
+  <si>
+    <t>Av. Antônio Gomes da Silva Júnior, 436</t>
+  </si>
+  <si>
+    <t>OAV0I35</t>
+  </si>
+  <si>
+    <t>Jeep Compass</t>
+  </si>
+  <si>
+    <t>GBT0I16</t>
+  </si>
+  <si>
+    <t>ARD8J98</t>
+  </si>
+  <si>
+    <t>FWR7E80</t>
+  </si>
+  <si>
+    <t>GER8C93</t>
+  </si>
+  <si>
+    <t>OPJ8G49</t>
+  </si>
+  <si>
+    <t>ECN3H17</t>
+  </si>
+  <si>
+    <t>BMW R1150 GS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTV4F48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNE8I16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPL2D38 </t>
+  </si>
+  <si>
+    <t>DST7C80</t>
+  </si>
+  <si>
+    <t>GIR3E06</t>
+  </si>
+  <si>
+    <t>Jeep Gcherokee</t>
+  </si>
+  <si>
+    <t>GCQ5A26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citroen Xsara </t>
+  </si>
+  <si>
+    <t>ABY8189</t>
+  </si>
+  <si>
+    <t>CWF7199</t>
+  </si>
+  <si>
+    <t>EXZ6D56</t>
+  </si>
+  <si>
+    <t>BSC0C02</t>
+  </si>
+  <si>
+    <t>BHZ8J35</t>
+  </si>
+  <si>
+    <t>FFZ4826</t>
   </si>
 </sst>
 </file>
@@ -5865,7 +6066,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -5993,6 +6194,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6039,7 +6255,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6054,6 +6270,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6415,7 +6634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6423,10 +6642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC952"/>
+  <dimension ref="A1:AC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B924" workbookViewId="0">
-      <selection activeCell="O956" sqref="O956"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB997" sqref="AB997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67233,6 +67452,2820 @@
         <v>1737</v>
       </c>
     </row>
+    <row r="953" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A953" s="4">
+        <v>3</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C953" s="6">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="D953" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E953" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F953" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G953" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H953" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I953" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="J953" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="K953" t="s">
+        <v>35</v>
+      </c>
+      <c r="N953" t="s">
+        <v>37</v>
+      </c>
+      <c r="T953" t="s">
+        <v>42</v>
+      </c>
+      <c r="U953" t="s">
+        <v>75</v>
+      </c>
+      <c r="V953">
+        <v>1</v>
+      </c>
+      <c r="W953" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X953" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y953" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z953" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA953" t="s">
+        <v>1702</v>
+      </c>
+      <c r="AC953" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="954" spans="1:29" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A954" s="4">
+        <v>3</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C954" s="6">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="D954" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E954" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F954" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G954" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H954" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I954" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J954" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K954" t="s">
+        <v>35</v>
+      </c>
+      <c r="N954" t="s">
+        <v>90</v>
+      </c>
+      <c r="T954" t="s">
+        <v>42</v>
+      </c>
+      <c r="U954" t="s">
+        <v>43</v>
+      </c>
+      <c r="V954">
+        <v>1</v>
+      </c>
+      <c r="W954" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X954" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y954" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z954" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC954" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="955" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A955" s="4">
+        <v>3</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C955" s="6">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="D955" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E955" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F955" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G955" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H955" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="I955" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J955" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K955" t="s">
+        <v>35</v>
+      </c>
+      <c r="N955" t="s">
+        <v>90</v>
+      </c>
+      <c r="T955" t="s">
+        <v>42</v>
+      </c>
+      <c r="U955" t="s">
+        <v>43</v>
+      </c>
+      <c r="V955">
+        <v>5</v>
+      </c>
+      <c r="W955" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X955" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y955" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z955" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC955" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="956" spans="1:29" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A956" s="4">
+        <v>1</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C956" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D956" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E956" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F956" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G956" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H956" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I956" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="J956" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="K956" t="s">
+        <v>35</v>
+      </c>
+      <c r="N956" t="s">
+        <v>37</v>
+      </c>
+      <c r="T956" t="s">
+        <v>42</v>
+      </c>
+      <c r="U956" t="s">
+        <v>43</v>
+      </c>
+      <c r="V956">
+        <v>6</v>
+      </c>
+      <c r="W956" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X956" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y956" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Z956" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC956" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="957" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="4">
+        <v>3</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C957" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D957" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E957" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="F957" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G957" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H957" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I957" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="J957" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="K957" t="s">
+        <v>970</v>
+      </c>
+      <c r="N957" t="s">
+        <v>401</v>
+      </c>
+      <c r="T957" t="s">
+        <v>42</v>
+      </c>
+      <c r="U957" t="s">
+        <v>43</v>
+      </c>
+      <c r="V957">
+        <v>6</v>
+      </c>
+      <c r="W957" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X957" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y957" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z957" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC957" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="958" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A958" s="4">
+        <v>4</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C958" s="6">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D958" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E958" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F958" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G958" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H958" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I958" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J958" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="K958" t="s">
+        <v>35</v>
+      </c>
+      <c r="N958" t="s">
+        <v>90</v>
+      </c>
+      <c r="T958" t="s">
+        <v>42</v>
+      </c>
+      <c r="U958" t="s">
+        <v>43</v>
+      </c>
+      <c r="V958">
+        <v>1</v>
+      </c>
+      <c r="W958" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X958" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y958" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z958" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC958" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="959" spans="1:29" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A959" s="4">
+        <v>3</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C959" s="6">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D959" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E959" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F959" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G959" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H959" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I959" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="J959" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="K959" t="s">
+        <v>35</v>
+      </c>
+      <c r="N959" t="s">
+        <v>37</v>
+      </c>
+      <c r="T959" t="s">
+        <v>42</v>
+      </c>
+      <c r="U959" t="s">
+        <v>75</v>
+      </c>
+      <c r="V959">
+        <v>1</v>
+      </c>
+      <c r="W959" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X959" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y959" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z959" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC959" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="960" spans="1:29" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A960" s="4">
+        <v>2</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C960" s="6">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D960" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E960" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F960" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G960" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H960" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I960" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="J960" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K960" t="s">
+        <v>35</v>
+      </c>
+      <c r="N960" t="s">
+        <v>37</v>
+      </c>
+      <c r="T960" t="s">
+        <v>42</v>
+      </c>
+      <c r="U960" t="s">
+        <v>75</v>
+      </c>
+      <c r="V960">
+        <v>1</v>
+      </c>
+      <c r="W960" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X960" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y960" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z960" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC960" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="961" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A961" s="4">
+        <v>2</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C961" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D961" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E961" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F961" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G961" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H961" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I961" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J961" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K961" t="s">
+        <v>35</v>
+      </c>
+      <c r="N961" t="s">
+        <v>1689</v>
+      </c>
+      <c r="T961" t="s">
+        <v>42</v>
+      </c>
+      <c r="U961" t="s">
+        <v>75</v>
+      </c>
+      <c r="V961">
+        <v>1</v>
+      </c>
+      <c r="W961" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X961" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y961" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z961" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC961" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="962" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="4">
+        <v>3</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C962" s="6">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D962" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E962" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F962" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G962" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H962" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I962" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J962" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K962" t="s">
+        <v>35</v>
+      </c>
+      <c r="N962" t="s">
+        <v>37</v>
+      </c>
+      <c r="T962" t="s">
+        <v>42</v>
+      </c>
+      <c r="U962" t="s">
+        <v>43</v>
+      </c>
+      <c r="V962">
+        <v>2</v>
+      </c>
+      <c r="W962" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X962" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y962" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z962" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC962" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="963" spans="1:29" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A963" s="4">
+        <v>5</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C963" s="6">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D963" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E963" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F963" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G963" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H963" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I963" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J963" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K963" t="s">
+        <v>35</v>
+      </c>
+      <c r="N963" t="s">
+        <v>37</v>
+      </c>
+      <c r="T963" t="s">
+        <v>42</v>
+      </c>
+      <c r="U963" t="s">
+        <v>43</v>
+      </c>
+      <c r="V963">
+        <v>2</v>
+      </c>
+      <c r="W963" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X963" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y963" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z963" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA963" t="s">
+        <v>1702</v>
+      </c>
+      <c r="AC963" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="964" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="4">
+        <v>5</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C964" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D964" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E964" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F964" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G964" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H964" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I964" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="J964" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K964" t="s">
+        <v>35</v>
+      </c>
+      <c r="N964" t="s">
+        <v>90</v>
+      </c>
+      <c r="T964" t="s">
+        <v>42</v>
+      </c>
+      <c r="U964" t="s">
+        <v>43</v>
+      </c>
+      <c r="V964">
+        <v>1</v>
+      </c>
+      <c r="W964" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X964" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y964" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z964" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA964" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC964" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="965" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A965" s="4">
+        <v>1</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C965" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D965" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E965" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F965" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G965" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H965" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I965" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J965" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K965" t="s">
+        <v>35</v>
+      </c>
+      <c r="N965" t="s">
+        <v>37</v>
+      </c>
+      <c r="T965" t="s">
+        <v>42</v>
+      </c>
+      <c r="U965" t="s">
+        <v>43</v>
+      </c>
+      <c r="V965">
+        <v>2</v>
+      </c>
+      <c r="W965" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X965" t="s">
+        <v>1693</v>
+      </c>
+      <c r="Y965" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z965" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC965" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="966" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A966" s="4">
+        <v>5</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C966" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D966" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E966" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F966" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G966" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H966" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I966" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J966" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="K966" t="s">
+        <v>35</v>
+      </c>
+      <c r="N966" t="s">
+        <v>37</v>
+      </c>
+      <c r="T966" t="s">
+        <v>42</v>
+      </c>
+      <c r="U966" t="s">
+        <v>43</v>
+      </c>
+      <c r="V966">
+        <v>3</v>
+      </c>
+      <c r="W966" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X966" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y966" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Z966" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC966" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="967" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A967" s="4">
+        <v>4</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C967" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D967" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E967" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F967" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G967" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H967" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I967" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J967" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K967" t="s">
+        <v>35</v>
+      </c>
+      <c r="N967" t="s">
+        <v>37</v>
+      </c>
+      <c r="T967" t="s">
+        <v>42</v>
+      </c>
+      <c r="U967" t="s">
+        <v>43</v>
+      </c>
+      <c r="V967">
+        <v>1</v>
+      </c>
+      <c r="W967" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X967" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y967" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z967" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC967" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="968" spans="1:29" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A968" s="4">
+        <v>3</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C968" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D968" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E968" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F968" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G968" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H968" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I968" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J968" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K968" t="s">
+        <v>35</v>
+      </c>
+      <c r="N968" t="s">
+        <v>37</v>
+      </c>
+      <c r="T968" t="s">
+        <v>42</v>
+      </c>
+      <c r="U968" t="s">
+        <v>75</v>
+      </c>
+      <c r="V968">
+        <v>2</v>
+      </c>
+      <c r="W968" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X968" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y968" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Z968" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC968" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="969" spans="1:29" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="4">
+        <v>6</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C969" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D969" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E969" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F969" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G969" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H969" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I969" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="J969" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K969" t="s">
+        <v>35</v>
+      </c>
+      <c r="N969" t="s">
+        <v>37</v>
+      </c>
+      <c r="T969" t="s">
+        <v>42</v>
+      </c>
+      <c r="U969" t="s">
+        <v>43</v>
+      </c>
+      <c r="V969">
+        <v>1</v>
+      </c>
+      <c r="W969" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X969" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y969" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z969" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC969" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="970" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="4">
+        <v>7</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C970" s="6">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="D970" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E970" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F970" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G970" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H970" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I970" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="J970" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="K970" t="s">
+        <v>35</v>
+      </c>
+      <c r="N970" t="s">
+        <v>1689</v>
+      </c>
+      <c r="T970" t="s">
+        <v>42</v>
+      </c>
+      <c r="U970" t="s">
+        <v>75</v>
+      </c>
+      <c r="V970">
+        <v>1</v>
+      </c>
+      <c r="W970" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X970" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y970" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z970" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC970" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="971" spans="1:29" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="4">
+        <v>7</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C971" s="6">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D971" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E971" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F971" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G971" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H971" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I971" s="8" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J971" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K971" t="s">
+        <v>35</v>
+      </c>
+      <c r="N971" t="s">
+        <v>37</v>
+      </c>
+      <c r="T971" t="s">
+        <v>42</v>
+      </c>
+      <c r="U971" t="s">
+        <v>75</v>
+      </c>
+      <c r="V971">
+        <v>2</v>
+      </c>
+      <c r="W971" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X971" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y971" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z971" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC971" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="972" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="4">
+        <v>6</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C972" s="6">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="D972" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E972" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F972" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G972" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H972" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I972" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J972" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K972" t="s">
+        <v>35</v>
+      </c>
+      <c r="N972" t="s">
+        <v>90</v>
+      </c>
+      <c r="T972" t="s">
+        <v>187</v>
+      </c>
+      <c r="U972" t="s">
+        <v>75</v>
+      </c>
+      <c r="V972">
+        <v>1</v>
+      </c>
+      <c r="W972" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X972" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y972" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z972" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC972" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="973" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="4">
+        <v>7</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C973" s="6">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="D973" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E973" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F973" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G973" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H973" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I973" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J973" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K973" t="s">
+        <v>35</v>
+      </c>
+      <c r="N973" t="s">
+        <v>37</v>
+      </c>
+      <c r="T973" t="s">
+        <v>42</v>
+      </c>
+      <c r="U973" t="s">
+        <v>75</v>
+      </c>
+      <c r="V973">
+        <v>2</v>
+      </c>
+      <c r="W973" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X973" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Y973" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z973" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA973" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AC973" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="974" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="4">
+        <v>8</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C974" s="6">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D974" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E974" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F974" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G974" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H974" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="I974" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="J974" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K974" t="s">
+        <v>35</v>
+      </c>
+      <c r="N974" t="s">
+        <v>90</v>
+      </c>
+      <c r="T974" t="s">
+        <v>42</v>
+      </c>
+      <c r="U974" t="s">
+        <v>75</v>
+      </c>
+      <c r="V974">
+        <v>2</v>
+      </c>
+      <c r="W974" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X974" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y974" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z974" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA974" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AC974" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="975" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="4">
+        <v>8</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C975" s="6">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="D975" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E975" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F975" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G975" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H975" s="4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I975" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J975" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="K975" t="s">
+        <v>35</v>
+      </c>
+      <c r="N975" t="s">
+        <v>37</v>
+      </c>
+      <c r="T975" t="s">
+        <v>42</v>
+      </c>
+      <c r="U975" t="s">
+        <v>75</v>
+      </c>
+      <c r="V975">
+        <v>2</v>
+      </c>
+      <c r="W975" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X975" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Y975" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z975" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA975" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AC975" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="976" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="4">
+        <v>8</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C976" s="6">
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="D976" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E976" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F976" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G976" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H976" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I976" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J976" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K976" t="s">
+        <v>167</v>
+      </c>
+      <c r="N976" t="s">
+        <v>37</v>
+      </c>
+      <c r="T976" t="s">
+        <v>42</v>
+      </c>
+      <c r="U976" t="s">
+        <v>43</v>
+      </c>
+      <c r="V976">
+        <v>1</v>
+      </c>
+      <c r="W976" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X976" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y976" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z976" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AC976" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="977" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="4">
+        <v>9</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C977" s="6">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="D977" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E977" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F977" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G977" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H977" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I977" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="J977" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="K977" t="s">
+        <v>35</v>
+      </c>
+      <c r="N977" t="s">
+        <v>37</v>
+      </c>
+      <c r="T977" t="s">
+        <v>42</v>
+      </c>
+      <c r="U977" t="s">
+        <v>43</v>
+      </c>
+      <c r="V977">
+        <v>2</v>
+      </c>
+      <c r="W977" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X977" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y977" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z977" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AC977" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="978" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="4">
+        <v>8</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C978" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="D978" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E978" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F978" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G978" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H978" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I978" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="J978" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K978" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N978" t="s">
+        <v>37</v>
+      </c>
+      <c r="O978" t="s">
+        <v>38</v>
+      </c>
+      <c r="P978" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q978" t="s">
+        <v>991</v>
+      </c>
+      <c r="R978" t="s">
+        <v>1855</v>
+      </c>
+      <c r="S978">
+        <v>2022</v>
+      </c>
+      <c r="T978" t="s">
+        <v>42</v>
+      </c>
+      <c r="U978" t="s">
+        <v>43</v>
+      </c>
+      <c r="V978">
+        <v>2</v>
+      </c>
+      <c r="W978" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X978" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y978" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z978" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="979" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="4">
+        <v>2</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C979" s="7">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="D979" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E979" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F979" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G979" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H979" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I979" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J979" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K979" t="s">
+        <v>167</v>
+      </c>
+      <c r="L979" s="4"/>
+      <c r="N979" t="s">
+        <v>65</v>
+      </c>
+      <c r="O979" t="s">
+        <v>66</v>
+      </c>
+      <c r="P979" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q979" t="s">
+        <v>214</v>
+      </c>
+      <c r="R979" t="s">
+        <v>1875</v>
+      </c>
+      <c r="S979">
+        <v>2013</v>
+      </c>
+      <c r="T979" t="s">
+        <v>42</v>
+      </c>
+      <c r="U979" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="980" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="4">
+        <v>3</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C980" s="7">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="D980" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E980" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F980" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G980" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H980" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I980" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J980" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K980" t="s">
+        <v>35</v>
+      </c>
+      <c r="L980" s="5">
+        <v>45447</v>
+      </c>
+      <c r="M980" t="s">
+        <v>112</v>
+      </c>
+      <c r="N980" t="s">
+        <v>37</v>
+      </c>
+      <c r="O980" t="s">
+        <v>66</v>
+      </c>
+      <c r="P980" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q980" t="s">
+        <v>1876</v>
+      </c>
+      <c r="R980" t="s">
+        <v>1877</v>
+      </c>
+      <c r="S980">
+        <v>2020</v>
+      </c>
+      <c r="T980" t="s">
+        <v>42</v>
+      </c>
+      <c r="U980" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="4">
+        <v>2</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C981" s="7">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="D981" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E981" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F981" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G981" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H981" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="I981" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J981" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K981" t="s">
+        <v>35</v>
+      </c>
+      <c r="L981" s="4"/>
+      <c r="N981" t="s">
+        <v>37</v>
+      </c>
+      <c r="O981" t="s">
+        <v>100</v>
+      </c>
+      <c r="P981" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q981" t="s">
+        <v>108</v>
+      </c>
+      <c r="R981" t="s">
+        <v>1878</v>
+      </c>
+      <c r="S981">
+        <v>2007</v>
+      </c>
+      <c r="T981" t="s">
+        <v>42</v>
+      </c>
+      <c r="U981" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="982" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="4">
+        <v>5</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C982" s="7">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D982" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E982" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F982" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G982" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H982" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I982" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="J982" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="K982" t="s">
+        <v>35</v>
+      </c>
+      <c r="L982" s="5">
+        <v>45448</v>
+      </c>
+      <c r="M982" t="s">
+        <v>337</v>
+      </c>
+      <c r="N982" t="s">
+        <v>37</v>
+      </c>
+      <c r="O982" t="s">
+        <v>38</v>
+      </c>
+      <c r="P982" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q982" t="s">
+        <v>40</v>
+      </c>
+      <c r="R982" t="s">
+        <v>1879</v>
+      </c>
+      <c r="S982">
+        <v>2014</v>
+      </c>
+      <c r="T982" t="s">
+        <v>42</v>
+      </c>
+      <c r="U982" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="4">
+        <v>4</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C983" s="7">
+        <v>0.88680555555555562</v>
+      </c>
+      <c r="D983" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E983" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F983" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G983" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H983" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I983" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J983" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K983" t="s">
+        <v>35</v>
+      </c>
+      <c r="L983" s="4"/>
+      <c r="N983" t="s">
+        <v>37</v>
+      </c>
+      <c r="O983" t="s">
+        <v>100</v>
+      </c>
+      <c r="P983" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q983" t="s">
+        <v>334</v>
+      </c>
+      <c r="R983" t="s">
+        <v>1880</v>
+      </c>
+      <c r="S983">
+        <v>2020</v>
+      </c>
+      <c r="T983" t="s">
+        <v>42</v>
+      </c>
+      <c r="U983" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="984" spans="1:29" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="4">
+        <v>4</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C984" s="7">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D984" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E984" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F984" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G984" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H984" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I984" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J984" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K984" t="s">
+        <v>35</v>
+      </c>
+      <c r="L984" s="4"/>
+      <c r="N984" t="s">
+        <v>37</v>
+      </c>
+      <c r="O984" t="s">
+        <v>66</v>
+      </c>
+      <c r="P984" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q984" t="s">
+        <v>214</v>
+      </c>
+      <c r="R984" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S984">
+        <v>2012</v>
+      </c>
+      <c r="T984" t="s">
+        <v>42</v>
+      </c>
+      <c r="U984" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="985" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="4">
+        <v>5</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C985" s="7">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="D985" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E985" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F985" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G985" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H985" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I985" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J985" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K985" t="s">
+        <v>35</v>
+      </c>
+      <c r="L985" s="5">
+        <v>45418</v>
+      </c>
+      <c r="M985" t="s">
+        <v>33</v>
+      </c>
+      <c r="N985" t="s">
+        <v>37</v>
+      </c>
+      <c r="O985" t="s">
+        <v>38</v>
+      </c>
+      <c r="P985" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q985" t="s">
+        <v>55</v>
+      </c>
+      <c r="R985" t="s">
+        <v>1882</v>
+      </c>
+      <c r="S985">
+        <v>2008</v>
+      </c>
+      <c r="T985" t="s">
+        <v>42</v>
+      </c>
+      <c r="U985" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="4">
+        <v>5</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C986" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D986" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E986" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F986" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G986" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H986" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I986" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J986" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K986" t="s">
+        <v>35</v>
+      </c>
+      <c r="L986" s="4"/>
+      <c r="N986" t="s">
+        <v>37</v>
+      </c>
+      <c r="O986" t="s">
+        <v>38</v>
+      </c>
+      <c r="P986" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q986" t="s">
+        <v>1883</v>
+      </c>
+      <c r="R986" t="s">
+        <v>1884</v>
+      </c>
+      <c r="S986">
+        <v>1999</v>
+      </c>
+      <c r="T986" t="s">
+        <v>42</v>
+      </c>
+      <c r="U986" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="987" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A987" s="4">
+        <v>5</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C987" s="7">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D987" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E987" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F987" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G987" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H987" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I987" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J987" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K987" t="s">
+        <v>35</v>
+      </c>
+      <c r="L987" s="4"/>
+      <c r="N987" t="s">
+        <v>37</v>
+      </c>
+      <c r="O987" t="s">
+        <v>100</v>
+      </c>
+      <c r="P987" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q987" t="s">
+        <v>173</v>
+      </c>
+      <c r="R987" t="s">
+        <v>1885</v>
+      </c>
+      <c r="S987">
+        <v>2013</v>
+      </c>
+      <c r="T987" t="s">
+        <v>42</v>
+      </c>
+      <c r="U987" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="988" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A988" s="4">
+        <v>6</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C988" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D988" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E988" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F988" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G988" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H988" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I988" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J988" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K988" t="s">
+        <v>35</v>
+      </c>
+      <c r="L988" s="4"/>
+      <c r="N988" t="s">
+        <v>37</v>
+      </c>
+      <c r="O988" t="s">
+        <v>100</v>
+      </c>
+      <c r="P988" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q988" t="s">
+        <v>289</v>
+      </c>
+      <c r="R988" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S988">
+        <v>2018</v>
+      </c>
+      <c r="T988" t="s">
+        <v>42</v>
+      </c>
+      <c r="U988" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="989" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A989" s="4">
+        <v>7</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C989" s="7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D989" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E989" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F989" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G989" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H989" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="I989" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J989" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K989" t="s">
+        <v>35</v>
+      </c>
+      <c r="L989" s="4"/>
+      <c r="N989" t="s">
+        <v>37</v>
+      </c>
+      <c r="O989" t="s">
+        <v>38</v>
+      </c>
+      <c r="P989" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q989" t="s">
+        <v>55</v>
+      </c>
+      <c r="R989" t="s">
+        <v>1887</v>
+      </c>
+      <c r="S989">
+        <v>2018</v>
+      </c>
+      <c r="T989" t="s">
+        <v>42</v>
+      </c>
+      <c r="U989" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="990" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A990" s="4">
+        <v>6</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C990" s="7">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="D990" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E990" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F990" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G990" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H990" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I990" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J990" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K990" t="s">
+        <v>35</v>
+      </c>
+      <c r="L990" s="4"/>
+      <c r="N990" t="s">
+        <v>37</v>
+      </c>
+      <c r="O990" t="s">
+        <v>66</v>
+      </c>
+      <c r="P990" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q990" t="s">
+        <v>229</v>
+      </c>
+      <c r="R990" t="s">
+        <v>1888</v>
+      </c>
+      <c r="S990">
+        <v>2022</v>
+      </c>
+      <c r="T990" t="s">
+        <v>42</v>
+      </c>
+      <c r="U990" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="991" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A991" s="4">
+        <v>6</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C991" s="7">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="D991" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E991" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F991" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G991" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H991" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I991" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J991" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K991" t="s">
+        <v>35</v>
+      </c>
+      <c r="L991" s="4"/>
+      <c r="N991" t="s">
+        <v>37</v>
+      </c>
+      <c r="O991" t="s">
+        <v>66</v>
+      </c>
+      <c r="P991" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q991" t="s">
+        <v>1889</v>
+      </c>
+      <c r="R991" t="s">
+        <v>1890</v>
+      </c>
+      <c r="S991">
+        <v>2015</v>
+      </c>
+      <c r="T991" t="s">
+        <v>42</v>
+      </c>
+      <c r="U991" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="992" spans="1:29" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A992" s="4">
+        <v>6</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C992" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="D992" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E992" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F992" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G992" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H992" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I992" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="J992" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="K992" t="s">
+        <v>35</v>
+      </c>
+      <c r="L992" s="4"/>
+      <c r="N992" t="s">
+        <v>37</v>
+      </c>
+      <c r="O992" t="s">
+        <v>100</v>
+      </c>
+      <c r="P992" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q992" t="s">
+        <v>1891</v>
+      </c>
+      <c r="R992" t="s">
+        <v>1892</v>
+      </c>
+      <c r="S992">
+        <v>2001</v>
+      </c>
+      <c r="T992" t="s">
+        <v>42</v>
+      </c>
+      <c r="U992" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="993" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A993" s="4">
+        <v>7</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C993" s="7">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="D993" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E993" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F993" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G993" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H993" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I993" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J993" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K993" t="s">
+        <v>35</v>
+      </c>
+      <c r="L993" s="4"/>
+      <c r="N993" t="s">
+        <v>37</v>
+      </c>
+      <c r="O993" t="s">
+        <v>100</v>
+      </c>
+      <c r="P993" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q993" t="s">
+        <v>102</v>
+      </c>
+      <c r="R993" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S993">
+        <v>1991</v>
+      </c>
+      <c r="T993" t="s">
+        <v>42</v>
+      </c>
+      <c r="U993" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="994" spans="1:28" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A994" s="4">
+        <v>7</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C994" s="7">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E994" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F994" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G994" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H994" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I994" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J994" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K994" t="s">
+        <v>35</v>
+      </c>
+      <c r="L994" s="5">
+        <v>45451</v>
+      </c>
+      <c r="M994" t="s">
+        <v>285</v>
+      </c>
+      <c r="N994" t="s">
+        <v>37</v>
+      </c>
+      <c r="O994" t="s">
+        <v>100</v>
+      </c>
+      <c r="P994" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q994" t="s">
+        <v>877</v>
+      </c>
+      <c r="R994" t="s">
+        <v>1894</v>
+      </c>
+      <c r="S994">
+        <v>2012</v>
+      </c>
+      <c r="T994" t="s">
+        <v>42</v>
+      </c>
+      <c r="U994" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A995" s="4">
+        <v>7</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C995" s="7">
+        <v>0.98125000000000007</v>
+      </c>
+      <c r="D995" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E995" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F995" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G995" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H995" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I995" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J995" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K995" t="s">
+        <v>49</v>
+      </c>
+      <c r="L995" s="4"/>
+      <c r="N995" t="s">
+        <v>37</v>
+      </c>
+      <c r="O995" t="s">
+        <v>100</v>
+      </c>
+      <c r="P995" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q995" t="s">
+        <v>189</v>
+      </c>
+      <c r="R995" t="s">
+        <v>1895</v>
+      </c>
+      <c r="S995">
+        <v>1995</v>
+      </c>
+      <c r="T995" t="s">
+        <v>42</v>
+      </c>
+      <c r="U995" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="996" spans="1:28" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A996" s="4">
+        <v>8</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C996" s="7">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D996" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E996" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F996" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G996" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H996" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I996" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J996" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K996" t="s">
+        <v>35</v>
+      </c>
+      <c r="L996" s="4"/>
+      <c r="N996" t="s">
+        <v>37</v>
+      </c>
+      <c r="O996" t="s">
+        <v>38</v>
+      </c>
+      <c r="P996" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q996" t="s">
+        <v>55</v>
+      </c>
+      <c r="R996" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S996">
+        <v>1993</v>
+      </c>
+      <c r="T996" t="s">
+        <v>42</v>
+      </c>
+      <c r="U996" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="997" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A997" s="4">
+        <v>8</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C997" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D997" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E997" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F997" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G997" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H997" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="I997" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="J997" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K997" t="s">
+        <v>35</v>
+      </c>
+      <c r="L997" s="4"/>
+      <c r="N997" t="s">
+        <v>37</v>
+      </c>
+      <c r="O997" t="s">
+        <v>66</v>
+      </c>
+      <c r="P997" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q997" t="s">
+        <v>917</v>
+      </c>
+      <c r="R997" t="s">
+        <v>1897</v>
+      </c>
+      <c r="S997">
+        <v>2012</v>
+      </c>
+      <c r="T997" t="s">
+        <v>42</v>
+      </c>
+      <c r="U997" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
